--- a/spliced/falling/2023-03-25_18-03-59/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-59/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-4.636096000671387</v>
+        <v>-3.823432922363281</v>
       </c>
       <c r="D2" t="n">
-        <v>5.381560325622559</v>
+        <v>5.642979621887207</v>
       </c>
       <c r="E2" t="n">
-        <v>5.073278903961182</v>
+        <v>4.475735664367676</v>
       </c>
       <c r="F2" t="n">
-        <v>1.293112953041876</v>
+        <v>-0.06746154287180267</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7586058728223629</v>
+        <v>0.03214145534087062</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.201892187429029</v>
+        <v>-0.9956535080144557</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-5.365009784698486</v>
+        <v>-4.128349304199219</v>
       </c>
       <c r="D3" t="n">
-        <v>4.192014694213867</v>
+        <v>5.92755126953125</v>
       </c>
       <c r="E3" t="n">
-        <v>5.306471347808838</v>
+        <v>5.054780960083008</v>
       </c>
       <c r="F3" t="n">
-        <v>1.076085335986568</v>
+        <v>0.2888078393284657</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3218408019043786</v>
+        <v>0.04184071745636832</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.197818033223937</v>
+        <v>-1.758943790613218</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-6.076753616333008</v>
+        <v>-4.636096000671387</v>
       </c>
       <c r="D4" t="n">
-        <v>2.580186367034912</v>
+        <v>5.381560325622559</v>
       </c>
       <c r="E4" t="n">
-        <v>6.088143825531006</v>
+        <v>5.073278903961182</v>
       </c>
       <c r="F4" t="n">
-        <v>1.466690946456983</v>
+        <v>1.293112953041876</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5813377291657031</v>
+        <v>-0.7586058728223629</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.9997129280899739</v>
+        <v>-2.201892187429029</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-6.769103527069092</v>
+        <v>-5.365009784698486</v>
       </c>
       <c r="D5" t="n">
-        <v>3.8761305809021</v>
+        <v>4.192014694213867</v>
       </c>
       <c r="E5" t="n">
-        <v>3.666451930999756</v>
+        <v>5.306471347808838</v>
       </c>
       <c r="F5" t="n">
-        <v>4.411398765652687</v>
+        <v>1.076085335986568</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.482220122980524</v>
+        <v>-0.3218408019043786</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.045610698849662</v>
+        <v>-1.197818033223937</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-5.217415809631348</v>
+        <v>-6.076753616333008</v>
       </c>
       <c r="D6" t="n">
-        <v>5.673132419586182</v>
+        <v>2.580186367034912</v>
       </c>
       <c r="E6" t="n">
-        <v>3.341332912445068</v>
+        <v>6.088143825531006</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08928575072178435</v>
+        <v>1.466690946456983</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.550635254660315</v>
+        <v>-0.5813377291657031</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06088052863297655</v>
+        <v>-0.9997129280899739</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.648830413818359</v>
+        <v>-6.769103527069092</v>
       </c>
       <c r="D7" t="n">
-        <v>2.288045167922974</v>
+        <v>3.8761305809021</v>
       </c>
       <c r="E7" t="n">
-        <v>2.572498321533203</v>
+        <v>3.666451930999756</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.9927981232487877</v>
+        <v>4.411398765652687</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.707755399304766</v>
+        <v>-4.482220122980524</v>
       </c>
       <c r="H7" t="n">
-        <v>1.41453302322432</v>
+        <v>-3.045610698849662</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62.12903594970703</v>
+        <v>-5.217415809631348</v>
       </c>
       <c r="D8" t="n">
-        <v>9.40150260925293</v>
+        <v>5.673132419586182</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.63701248168945</v>
+        <v>3.341332912445068</v>
       </c>
       <c r="F8" t="n">
-        <v>2.431215341007984</v>
+        <v>0.08928575072178435</v>
       </c>
       <c r="G8" t="n">
-        <v>1.645354886387669</v>
+        <v>-1.550635254660315</v>
       </c>
       <c r="H8" t="n">
-        <v>0.273621466270713</v>
+        <v>0.06088052863297655</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.846994400024414</v>
+        <v>-4.648830413818359</v>
       </c>
       <c r="D9" t="n">
-        <v>9.073053359985352</v>
+        <v>2.288045167922974</v>
       </c>
       <c r="E9" t="n">
-        <v>3.893637657165527</v>
+        <v>2.572498321533203</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2498580986677279</v>
+        <v>-0.9927981232487877</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9151578448539578</v>
+        <v>-1.707755399304766</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4712292718332862</v>
+        <v>1.41453302322432</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.824018478393555</v>
+        <v>62.12903594970703</v>
       </c>
       <c r="D10" t="n">
-        <v>1.011744022369385</v>
+        <v>9.40150260925293</v>
       </c>
       <c r="E10" t="n">
-        <v>6.095863819122314</v>
+        <v>-14.63701248168945</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04947298288691901</v>
+        <v>2.431215341007984</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4319243583568316</v>
+        <v>1.645354886387669</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3634221997371941</v>
+        <v>0.273621466270713</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15.44786834716797</v>
+        <v>-6.846994400024414</v>
       </c>
       <c r="D11" t="n">
-        <v>3.326952695846558</v>
+        <v>9.073053359985352</v>
       </c>
       <c r="E11" t="n">
-        <v>7.409719944000244</v>
+        <v>3.893637657165527</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5032464119410757</v>
+        <v>0.2498580986677279</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05431018042009644</v>
+        <v>0.9151578448539578</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3147802685582363</v>
+        <v>0.4712292718332862</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.8648982048034668</v>
+        <v>4.824018478393555</v>
       </c>
       <c r="D12" t="n">
-        <v>5.278839111328125</v>
+        <v>1.011744022369385</v>
       </c>
       <c r="E12" t="n">
-        <v>5.748791694641113</v>
+        <v>6.095863819122314</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8943670974221336</v>
+        <v>0.04947298288691901</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.390350583680838</v>
+        <v>0.4319243583568316</v>
       </c>
       <c r="H12" t="n">
-        <v>2.061716448429016</v>
+        <v>0.3634221997371941</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.2574462890625</v>
+        <v>15.44786834716797</v>
       </c>
       <c r="D13" t="n">
-        <v>1.225612640380859</v>
+        <v>3.326952695846558</v>
       </c>
       <c r="E13" t="n">
-        <v>7.33539867401123</v>
+        <v>7.409719944000244</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08820253887841945</v>
+        <v>-0.5032464119410757</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.5515473787347926</v>
+        <v>-0.05431018042009644</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8748975694179519</v>
+        <v>0.3147802685582363</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.297415733337402</v>
+        <v>-0.8648982048034668</v>
       </c>
       <c r="D14" t="n">
-        <v>4.380810260772705</v>
+        <v>5.278839111328125</v>
       </c>
       <c r="E14" t="n">
-        <v>6.710616588592529</v>
+        <v>5.748791694641113</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2351689076181083</v>
+        <v>-0.8943670974221336</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03523484912029523</v>
+        <v>-1.390350583680838</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06333464960199484</v>
+        <v>2.061716448429016</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-4.824479103088379</v>
+        <v>1.2574462890625</v>
       </c>
       <c r="D15" t="n">
-        <v>3.505787849426269</v>
+        <v>1.225612640380859</v>
       </c>
       <c r="E15" t="n">
-        <v>5.917765617370605</v>
+        <v>7.33539867401123</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.005455169480207168</v>
+        <v>0.08820253887841945</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04037748242533482</v>
+        <v>-0.5515473787347926</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09177540264330601</v>
+        <v>0.8748975694179519</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.601564407348633</v>
+        <v>1.297415733337402</v>
       </c>
       <c r="D16" t="n">
-        <v>5.296027660369873</v>
+        <v>4.380810260772705</v>
       </c>
       <c r="E16" t="n">
-        <v>4.190939426422119</v>
+        <v>6.710616588592529</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03705323929356984</v>
+        <v>0.2351689076181083</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02731135879578294</v>
+        <v>-0.03523484912029523</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08058094122815343</v>
+        <v>0.06333464960199484</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9737215042114258</v>
+        <v>-4.824479103088379</v>
       </c>
       <c r="D17" t="n">
-        <v>3.227108478546143</v>
+        <v>3.505787849426269</v>
       </c>
       <c r="E17" t="n">
-        <v>7.653890609741211</v>
+        <v>5.917765617370605</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.03103692665003059</v>
+        <v>-0.005455169480207168</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001527163070128304</v>
+        <v>-0.04037748242533482</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01256180448500908</v>
+        <v>0.09177540264330601</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5169296264648438</v>
+        <v>2.601564407348633</v>
       </c>
       <c r="D18" t="n">
-        <v>3.862967014312744</v>
+        <v>5.296027660369873</v>
       </c>
       <c r="E18" t="n">
-        <v>6.639832496643066</v>
+        <v>4.190939426422119</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01491292483758091</v>
+        <v>-0.03705323929356984</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.00055048926625147</v>
+        <v>-0.02731135879578294</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0008630249216113467</v>
+        <v>0.08058094122815343</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.4491424560546875</v>
+        <v>0.9737215042114258</v>
       </c>
       <c r="D19" t="n">
-        <v>3.653162002563477</v>
+        <v>3.227108478546143</v>
       </c>
       <c r="E19" t="n">
-        <v>6.346769332885742</v>
+        <v>7.653890609741211</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02735042602343611</v>
+        <v>-0.03103692665003059</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0430127267920694</v>
+        <v>0.001527163070128304</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.02982940334220257</v>
+        <v>0.01256180448500908</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.2319450378417968</v>
+        <v>0.5169296264648438</v>
       </c>
       <c r="D20" t="n">
-        <v>3.570143699645996</v>
+        <v>3.862967014312744</v>
       </c>
       <c r="E20" t="n">
-        <v>6.152892589569092</v>
+        <v>6.639832496643066</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02472228522217548</v>
+        <v>-0.01491292483758091</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.03295831200341841</v>
+        <v>-0.00055048926625147</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.03895686653464332</v>
+        <v>-0.0008630249216113467</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.591557502746582</v>
+        <v>-0.4491424560546875</v>
       </c>
       <c r="D21" t="n">
-        <v>3.706366539001465</v>
+        <v>3.653162002563477</v>
       </c>
       <c r="E21" t="n">
-        <v>6.142139434814453</v>
+        <v>6.346769332885742</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02063801200237381</v>
+        <v>0.02735042602343611</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.03524550544314599</v>
+        <v>-0.0430127267920694</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.04112330546905821</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.2686710357666015</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.55421781539917</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6.011789798736572</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.01983181198755671</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.03044381999778897</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.04586461641240953</v>
+        <v>-0.02982940334220257</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-03-59/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-59/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.823432922363281</v>
+        <v>-4.391921520233154</v>
       </c>
       <c r="D2" t="n">
-        <v>5.642979621887207</v>
+        <v>5.980224609375</v>
       </c>
       <c r="E2" t="n">
-        <v>4.475735664367676</v>
+        <v>2.74719500541687</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06746154287180267</v>
+        <v>0.005824529005452867</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03214145534087062</v>
+        <v>-0.004876267489825652</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.9956535080144557</v>
+        <v>0.009258870057068522</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4.128349304199219</v>
+        <v>-4.076038837432861</v>
       </c>
       <c r="D3" t="n">
-        <v>5.92755126953125</v>
+        <v>6.086456298828125</v>
       </c>
       <c r="E3" t="n">
-        <v>5.054780960083008</v>
+        <v>2.820330142974853</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2888078393284657</v>
+        <v>0.01996676961696429</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04184071745636832</v>
+        <v>-0.05454103202494082</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.758943790613218</v>
+        <v>-0.001441926153939801</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.636096000671387</v>
+        <v>-3.987221717834473</v>
       </c>
       <c r="D4" t="n">
-        <v>5.381560325622559</v>
+        <v>6.00103759765625</v>
       </c>
       <c r="E4" t="n">
-        <v>5.073278903961182</v>
+        <v>2.755735635757446</v>
       </c>
       <c r="F4" t="n">
-        <v>1.293112953041876</v>
+        <v>-0.02569185483247746</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.7586058728223629</v>
+        <v>-0.01999163068830969</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.201892187429029</v>
+        <v>-0.009539442396787617</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-5.365009784698486</v>
+        <v>-4.239626407623291</v>
       </c>
       <c r="D5" t="n">
-        <v>4.192014694213867</v>
+        <v>5.927947998046875</v>
       </c>
       <c r="E5" t="n">
-        <v>5.306471347808838</v>
+        <v>2.57724142074585</v>
       </c>
       <c r="F5" t="n">
-        <v>1.076085335986568</v>
+        <v>0.03522419491999366</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3218408019043786</v>
+        <v>0.005352173823603298</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.197818033223937</v>
+        <v>-0.01602810922317025</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-6.076753616333008</v>
+        <v>-4.282441139221191</v>
       </c>
       <c r="D6" t="n">
-        <v>2.580186367034912</v>
+        <v>6.027595043182373</v>
       </c>
       <c r="E6" t="n">
-        <v>6.088143825531006</v>
+        <v>2.64313268661499</v>
       </c>
       <c r="F6" t="n">
-        <v>1.466690946456983</v>
+        <v>-0.01577594932601883</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5813377291657031</v>
+        <v>0.060614168860538</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.9997129280899739</v>
+        <v>-0.009635333469960495</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-6.769103527069092</v>
+        <v>-4.193782329559326</v>
       </c>
       <c r="D7" t="n">
-        <v>3.8761305809021</v>
+        <v>5.953823566436768</v>
       </c>
       <c r="E7" t="n">
-        <v>3.666451930999756</v>
+        <v>2.714946508407593</v>
       </c>
       <c r="F7" t="n">
-        <v>4.411398765652687</v>
+        <v>-0.03060719080615873</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.482220122980524</v>
+        <v>0.2389583984433218</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.045610698849662</v>
+        <v>-0.11525819691028</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.217415809631348</v>
+        <v>-4.003739356994629</v>
       </c>
       <c r="D8" t="n">
-        <v>5.673132419586182</v>
+        <v>5.964433670043945</v>
       </c>
       <c r="E8" t="n">
-        <v>3.341332912445068</v>
+        <v>2.773677349090576</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08928575072178435</v>
+        <v>-0.02314895105569856</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.550635254660315</v>
+        <v>0.2151985930842024</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06088052863297655</v>
+        <v>-0.08631312587233481</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.648830413818359</v>
+        <v>-4.139037609100342</v>
       </c>
       <c r="D9" t="n">
-        <v>2.288045167922974</v>
+        <v>5.919798851013184</v>
       </c>
       <c r="E9" t="n">
-        <v>2.572498321533203</v>
+        <v>3.334548950195312</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9927981232487877</v>
+        <v>-0.06812567826966884</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.707755399304766</v>
+        <v>0.2275579571723937</v>
       </c>
       <c r="H9" t="n">
-        <v>1.41453302322432</v>
+        <v>-0.07889750547880346</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>62.12903594970703</v>
+        <v>-4.075920104980469</v>
       </c>
       <c r="D10" t="n">
-        <v>9.40150260925293</v>
+        <v>5.56472110748291</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.63701248168945</v>
+        <v>3.763194084167481</v>
       </c>
       <c r="F10" t="n">
-        <v>2.431215341007984</v>
+        <v>-0.1647382801355317</v>
       </c>
       <c r="G10" t="n">
-        <v>1.645354886387669</v>
+        <v>0.1269321128032929</v>
       </c>
       <c r="H10" t="n">
-        <v>0.273621466270713</v>
+        <v>-0.3623354202786154</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-6.846994400024414</v>
+        <v>-3.823432922363281</v>
       </c>
       <c r="D11" t="n">
-        <v>9.073053359985352</v>
+        <v>5.642979621887207</v>
       </c>
       <c r="E11" t="n">
-        <v>3.893637657165527</v>
+        <v>4.475735664367676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2498580986677279</v>
+        <v>-0.06746154287180267</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9151578448539578</v>
+        <v>0.03214145534087062</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4712292718332862</v>
+        <v>-0.9956535080144557</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.824018478393555</v>
+        <v>-4.128349304199219</v>
       </c>
       <c r="D12" t="n">
-        <v>1.011744022369385</v>
+        <v>5.92755126953125</v>
       </c>
       <c r="E12" t="n">
-        <v>6.095863819122314</v>
+        <v>5.054780960083008</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04947298288691901</v>
+        <v>0.2888078393284657</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4319243583568316</v>
+        <v>0.04184071745636832</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3634221997371941</v>
+        <v>-1.758943790613218</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15.44786834716797</v>
+        <v>-4.636096000671387</v>
       </c>
       <c r="D13" t="n">
-        <v>3.326952695846558</v>
+        <v>5.381560325622559</v>
       </c>
       <c r="E13" t="n">
-        <v>7.409719944000244</v>
+        <v>5.073278903961182</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5032464119410757</v>
+        <v>1.293112953041876</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05431018042009644</v>
+        <v>-0.7586058728223629</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3147802685582363</v>
+        <v>-2.201892187429029</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.8648982048034668</v>
+        <v>-5.365009784698486</v>
       </c>
       <c r="D14" t="n">
-        <v>5.278839111328125</v>
+        <v>4.192014694213867</v>
       </c>
       <c r="E14" t="n">
-        <v>5.748791694641113</v>
+        <v>5.306471347808838</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8943670974221336</v>
+        <v>1.076085335986568</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.390350583680838</v>
+        <v>-0.3218408019043786</v>
       </c>
       <c r="H14" t="n">
-        <v>2.061716448429016</v>
+        <v>-1.197818033223937</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.2574462890625</v>
+        <v>-6.076753616333008</v>
       </c>
       <c r="D15" t="n">
-        <v>1.225612640380859</v>
+        <v>2.580186367034912</v>
       </c>
       <c r="E15" t="n">
-        <v>7.33539867401123</v>
+        <v>6.088143825531006</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08820253887841945</v>
+        <v>1.466690946456983</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.5515473787347926</v>
+        <v>-0.5813377291657031</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8748975694179519</v>
+        <v>-0.9997129280899739</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.297415733337402</v>
+        <v>-6.769103527069092</v>
       </c>
       <c r="D16" t="n">
-        <v>4.380810260772705</v>
+        <v>3.8761305809021</v>
       </c>
       <c r="E16" t="n">
-        <v>6.710616588592529</v>
+        <v>3.666451930999756</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2351689076181083</v>
+        <v>4.411398765652687</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.03523484912029523</v>
+        <v>-4.482220122980524</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06333464960199484</v>
+        <v>-3.045610698849662</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-4.824479103088379</v>
+        <v>-5.217415809631348</v>
       </c>
       <c r="D17" t="n">
-        <v>3.505787849426269</v>
+        <v>5.673132419586182</v>
       </c>
       <c r="E17" t="n">
-        <v>5.917765617370605</v>
+        <v>3.341332912445068</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.005455169480207168</v>
+        <v>0.08928575072178435</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.04037748242533482</v>
+        <v>-1.550635254660315</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09177540264330601</v>
+        <v>0.06088052863297655</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.601564407348633</v>
+        <v>-4.648830413818359</v>
       </c>
       <c r="D18" t="n">
-        <v>5.296027660369873</v>
+        <v>2.288045167922974</v>
       </c>
       <c r="E18" t="n">
-        <v>4.190939426422119</v>
+        <v>2.572498321533203</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.03705323929356984</v>
+        <v>-0.9927981232487877</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02731135879578294</v>
+        <v>-1.707755399304766</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08058094122815343</v>
+        <v>1.41453302322432</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9737215042114258</v>
+        <v>62.12903594970703</v>
       </c>
       <c r="D19" t="n">
-        <v>3.227108478546143</v>
+        <v>9.40150260925293</v>
       </c>
       <c r="E19" t="n">
-        <v>7.653890609741211</v>
+        <v>-14.63701248168945</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.03103692665003059</v>
+        <v>2.431215341007984</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001527163070128304</v>
+        <v>1.645354886387669</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01256180448500908</v>
+        <v>0.273621466270713</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5169296264648438</v>
+        <v>-6.846994400024414</v>
       </c>
       <c r="D20" t="n">
-        <v>3.862967014312744</v>
+        <v>9.073053359985352</v>
       </c>
       <c r="E20" t="n">
-        <v>6.639832496643066</v>
+        <v>3.893637657165527</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01491292483758091</v>
+        <v>0.2498580986677279</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00055048926625147</v>
+        <v>0.9151578448539578</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0008630249216113467</v>
+        <v>0.4712292718332862</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>4.824018478393555</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.011744022369385</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.095863819122314</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.04947298288691901</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4319243583568316</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3634221997371941</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>15.44786834716797</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.326952695846558</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.409719944000244</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.5032464119410757</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.05431018042009644</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3147802685582363</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.8648982048034668</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.278839111328125</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.748791694641113</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.8943670974221336</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1.390350583680838</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.061716448429016</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.2574462890625</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.225612640380859</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.33539867401123</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.08820253887841945</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.5515473787347926</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8748975694179519</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.297415733337402</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.380810260772705</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.710616588592529</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2351689076181083</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.03523484912029523</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.06333464960199484</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.824479103088379</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.505787849426269</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.917765617370605</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.005455169480207168</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.04037748242533482</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.09177540264330601</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2.601564407348633</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.296027660369873</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.190939426422119</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.03705323929356984</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.02731135879578294</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.08058094122815343</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9737215042114258</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.227108478546143</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7.653890609741211</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.03103692665003059</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.001527163070128304</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.01256180448500908</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5169296264648438</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.862967014312744</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.639832496643066</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.01491292483758091</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.00055048926625147</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0008630249216113467</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>-0.4491424560546875</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>3.653162002563477</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E30" t="n">
         <v>6.346769332885742</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F30" t="n">
         <v>0.02735042602343611</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G30" t="n">
         <v>-0.0430127267920694</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>-0.02982940334220257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2319450378417968</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.570143699645996</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.152892589569092</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02472228522217548</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.03295831200341841</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.03895686653464332</v>
       </c>
     </row>
   </sheetData>
